--- a/dataanalysis/data/predictions/1000/09190945_0948.xlsx
+++ b/dataanalysis/data/predictions/1000/09190945_0948.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-19</t>
   </si>
   <si>
@@ -416,12 +419,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -779,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,19 +885,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-1.49</v>
@@ -918,7 +918,7 @@
         <v>30436.31</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -960,10 +960,25 @@
         <v>-0.17</v>
       </c>
       <c r="X2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y2">
+        <v>0.59</v>
+      </c>
+      <c r="Z2">
+        <v>14.21</v>
+      </c>
+      <c r="AA2">
+        <v>2.3</v>
       </c>
       <c r="AC2" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -971,22 +986,25 @@
       <c r="AG2">
         <v>4.233644008636475</v>
       </c>
-      <c r="AH2" t="s">
-        <v>134</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-6.81</v>
@@ -1004,7 +1022,7 @@
         <v>130746.8</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -1046,10 +1064,25 @@
         <v>-0.86</v>
       </c>
       <c r="X3" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y3">
+        <v>0.62</v>
+      </c>
+      <c r="Z3">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>-0.85</v>
       </c>
       <c r="AC3" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1057,22 +1090,25 @@
       <c r="AG3">
         <v>3.699806451797485</v>
       </c>
-      <c r="AH3" t="s">
-        <v>134</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300043</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.42</v>
@@ -1090,7 +1126,7 @@
         <v>22088.02</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1132,10 +1168,25 @@
         <v>-0.09</v>
       </c>
       <c r="X4" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y4">
+        <v>-1.14</v>
+      </c>
+      <c r="Z4">
+        <v>7.08</v>
+      </c>
+      <c r="AA4">
+        <v>-0.84</v>
       </c>
       <c r="AC4" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1143,22 +1194,25 @@
       <c r="AG4">
         <v>4.364830017089844</v>
       </c>
-      <c r="AH4" t="s">
-        <v>134</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.03</v>
@@ -1176,7 +1230,7 @@
         <v>27576.96</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5">
         <v>17</v>
@@ -1218,10 +1272,25 @@
         <v>-0.01</v>
       </c>
       <c r="X5" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y5">
+        <v>-0.62</v>
+      </c>
+      <c r="Z5">
+        <v>82.3</v>
+      </c>
+      <c r="AA5">
+        <v>-4.11</v>
       </c>
       <c r="AC5" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1229,22 +1298,25 @@
       <c r="AG5">
         <v>4.191702842712402</v>
       </c>
-      <c r="AH5" t="s">
-        <v>134</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300115</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-4.2</v>
@@ -1262,7 +1334,7 @@
         <v>202869.27</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1304,10 +1376,25 @@
         <v>-0.09</v>
       </c>
       <c r="X6" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y6">
+        <v>20.01</v>
+      </c>
+      <c r="Z6">
+        <v>37.72</v>
+      </c>
+      <c r="AA6">
+        <v>14.13</v>
       </c>
       <c r="AC6" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1315,22 +1402,25 @@
       <c r="AG6">
         <v>19.74322128295898</v>
       </c>
-      <c r="AH6" t="s">
-        <v>134</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300252</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.13</v>
@@ -1348,7 +1438,7 @@
         <v>80401.64</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1390,10 +1480,25 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="X7" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y7">
+        <v>-1.1</v>
+      </c>
+      <c r="Z7">
+        <v>15.58</v>
+      </c>
+      <c r="AA7">
+        <v>-1.33</v>
       </c>
       <c r="AC7" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1401,22 +1506,25 @@
       <c r="AG7">
         <v>1.501160621643066</v>
       </c>
-      <c r="AH7" t="s">
-        <v>134</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300277</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0.91</v>
@@ -1434,7 +1542,7 @@
         <v>21335.6</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1476,10 +1584,25 @@
         <v>0.1</v>
       </c>
       <c r="X8" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y8">
+        <v>3.65</v>
+      </c>
+      <c r="Z8">
+        <v>16.47</v>
+      </c>
+      <c r="AA8">
+        <v>-1.38</v>
       </c>
       <c r="AC8" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1487,22 +1610,25 @@
       <c r="AG8">
         <v>16.37705421447754</v>
       </c>
-      <c r="AH8" t="s">
-        <v>134</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300324</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>7.3</v>
@@ -1520,7 +1646,7 @@
         <v>111862.84</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1562,10 +1688,25 @@
         <v>0.83</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y9">
+        <v>-2</v>
+      </c>
+      <c r="Z9">
+        <v>7.58</v>
+      </c>
+      <c r="AA9">
+        <v>-2.7</v>
       </c>
       <c r="AC9" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1573,22 +1714,25 @@
       <c r="AG9">
         <v>5.476634502410889</v>
       </c>
-      <c r="AH9" t="s">
-        <v>135</v>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300331</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>2.9</v>
@@ -1606,7 +1750,7 @@
         <v>59831.19</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1648,10 +1792,25 @@
         <v>0.37</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y10">
+        <v>-3.89</v>
+      </c>
+      <c r="Z10">
+        <v>39.83</v>
+      </c>
+      <c r="AA10">
+        <v>0.08</v>
       </c>
       <c r="AC10" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1659,22 +1818,25 @@
       <c r="AG10">
         <v>6.635847568511963</v>
       </c>
-      <c r="AH10" t="s">
-        <v>134</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300450</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.65</v>
@@ -1692,7 +1854,7 @@
         <v>354563.33</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1734,10 +1896,25 @@
         <v>0.03</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y11">
+        <v>5.92</v>
+      </c>
+      <c r="Z11">
+        <v>58.9</v>
+      </c>
+      <c r="AA11">
+        <v>0.17</v>
       </c>
       <c r="AC11" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1745,22 +1922,25 @@
       <c r="AG11">
         <v>-1.242337107658386</v>
       </c>
-      <c r="AH11" t="s">
-        <v>134</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300457</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-1.37</v>
@@ -1778,7 +1958,7 @@
         <v>39123.63</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12">
         <v>14</v>
@@ -1820,10 +2000,25 @@
         <v>-0.1</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y12">
+        <v>1.99</v>
+      </c>
+      <c r="Z12">
+        <v>34.45</v>
+      </c>
+      <c r="AA12">
+        <v>-0.14</v>
       </c>
       <c r="AC12" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1831,22 +2026,25 @@
       <c r="AG12">
         <v>-0.6048282384872437</v>
       </c>
-      <c r="AH12" t="s">
-        <v>134</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300467</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0.26</v>
@@ -1864,7 +2062,7 @@
         <v>17325.01</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1905,8 +2103,23 @@
       <c r="W13">
         <v>0.19</v>
       </c>
+      <c r="Y13">
+        <v>-2.48</v>
+      </c>
+      <c r="Z13">
+        <v>26.56</v>
+      </c>
+      <c r="AA13">
+        <v>-2.25</v>
+      </c>
       <c r="AC13" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1914,22 +2127,25 @@
       <c r="AG13">
         <v>0.3866476118564606</v>
       </c>
-      <c r="AH13" t="s">
-        <v>134</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300469</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-0.21</v>
@@ -1947,7 +2163,7 @@
         <v>32805.05</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14">
         <v>22</v>
@@ -1989,10 +2205,25 @@
         <v>0.05</v>
       </c>
       <c r="X14" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y14">
+        <v>0.55</v>
+      </c>
+      <c r="Z14">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>1.57</v>
       </c>
       <c r="AC14" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2000,22 +2231,25 @@
       <c r="AG14">
         <v>5.792083740234375</v>
       </c>
-      <c r="AH14" t="s">
-        <v>134</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300475</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>3.6</v>
@@ -2033,7 +2267,7 @@
         <v>128170.47</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -2075,10 +2309,25 @@
         <v>-0.04</v>
       </c>
       <c r="X15" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y15">
+        <v>13.07</v>
+      </c>
+      <c r="Z15">
+        <v>88.64</v>
+      </c>
+      <c r="AA15">
+        <v>13.31</v>
       </c>
       <c r="AC15" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -2086,22 +2335,25 @@
       <c r="AG15">
         <v>1.990760803222656</v>
       </c>
-      <c r="AH15" t="s">
-        <v>134</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300499</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-3.88</v>
@@ -2119,7 +2371,7 @@
         <v>65579.10000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2161,10 +2413,25 @@
         <v>-0.58</v>
       </c>
       <c r="X16" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y16">
+        <v>3.69</v>
+      </c>
+      <c r="Z16">
+        <v>33.83</v>
+      </c>
+      <c r="AA16">
+        <v>1.99</v>
       </c>
       <c r="AC16" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2172,22 +2439,25 @@
       <c r="AG16">
         <v>3.216481924057007</v>
       </c>
-      <c r="AH16" t="s">
-        <v>134</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300507</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-2.11</v>
@@ -2205,7 +2475,7 @@
         <v>69739.67999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2246,8 +2516,23 @@
       <c r="W17">
         <v>-0.89</v>
       </c>
+      <c r="Y17">
+        <v>-1.27</v>
+      </c>
+      <c r="Z17">
+        <v>10.42</v>
+      </c>
+      <c r="AA17">
+        <v>1.96</v>
+      </c>
       <c r="AC17" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2255,22 +2540,25 @@
       <c r="AG17">
         <v>151.5727691650391</v>
       </c>
-      <c r="AH17" t="s">
-        <v>134</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300602</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.47</v>
@@ -2288,7 +2576,7 @@
         <v>66443.50999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2330,10 +2618,25 @@
         <v>-0.49</v>
       </c>
       <c r="X18" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y18">
+        <v>3.86</v>
+      </c>
+      <c r="Z18">
+        <v>35.61</v>
+      </c>
+      <c r="AA18">
+        <v>2.3</v>
       </c>
       <c r="AC18" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2341,22 +2644,25 @@
       <c r="AG18">
         <v>-2.325567960739136</v>
       </c>
-      <c r="AH18" t="s">
-        <v>134</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300604</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>1.85</v>
@@ -2374,7 +2680,7 @@
         <v>69315.13</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19">
         <v>18</v>
@@ -2416,10 +2722,25 @@
         <v>-0.03</v>
       </c>
       <c r="X19" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y19">
+        <v>4.53</v>
+      </c>
+      <c r="Z19">
+        <v>67.8</v>
+      </c>
+      <c r="AA19">
+        <v>2.59</v>
       </c>
       <c r="AC19" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2427,22 +2748,25 @@
       <c r="AG19">
         <v>7.598078727722168</v>
       </c>
-      <c r="AH19" t="s">
-        <v>134</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300620</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-0.47</v>
@@ -2460,7 +2784,7 @@
         <v>136904.81</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -2502,10 +2826,25 @@
         <v>-0.33</v>
       </c>
       <c r="X20" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y20">
+        <v>10.27</v>
+      </c>
+      <c r="Z20">
+        <v>144.23</v>
+      </c>
+      <c r="AA20">
+        <v>17.66</v>
       </c>
       <c r="AC20" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2513,22 +2852,25 @@
       <c r="AG20">
         <v>2.539455890655518</v>
       </c>
-      <c r="AH20" t="s">
-        <v>134</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300680</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-5.14</v>
@@ -2546,7 +2888,7 @@
         <v>38390.07</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2588,10 +2930,25 @@
         <v>-0.14</v>
       </c>
       <c r="X21" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y21">
+        <v>0.08</v>
+      </c>
+      <c r="Z21">
+        <v>61.47</v>
+      </c>
+      <c r="AA21">
+        <v>3.35</v>
       </c>
       <c r="AC21" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2599,22 +2956,25 @@
       <c r="AG21">
         <v>3.196468591690063</v>
       </c>
-      <c r="AH21" t="s">
-        <v>134</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300684</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-1.16</v>
@@ -2632,7 +2992,7 @@
         <v>49928.26</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2674,10 +3034,25 @@
         <v>-0.55</v>
       </c>
       <c r="X22" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y22">
+        <v>2.78</v>
+      </c>
+      <c r="Z22">
+        <v>45</v>
+      </c>
+      <c r="AA22">
+        <v>1.17</v>
       </c>
       <c r="AC22" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2685,22 +3060,25 @@
       <c r="AG22">
         <v>2.870357275009155</v>
       </c>
-      <c r="AH22" t="s">
-        <v>134</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300814</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>1.64</v>
@@ -2718,7 +3096,7 @@
         <v>13662.95</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2760,10 +3138,25 @@
         <v>0.01</v>
       </c>
       <c r="X23" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="Y23">
+        <v>0.02</v>
+      </c>
+      <c r="Z23">
+        <v>53.2</v>
+      </c>
+      <c r="AA23">
+        <v>6.02</v>
       </c>
       <c r="AC23" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2771,22 +3164,25 @@
       <c r="AG23">
         <v>4.39303731918335</v>
       </c>
-      <c r="AH23" t="s">
-        <v>134</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300857</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2.69</v>
@@ -2804,7 +3200,7 @@
         <v>81273.78999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24">
         <v>21</v>
@@ -2846,10 +3242,25 @@
         <v>0.04</v>
       </c>
       <c r="X24" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y24">
+        <v>7.1</v>
+      </c>
+      <c r="Z24">
+        <v>178.59</v>
+      </c>
+      <c r="AA24">
+        <v>6.68</v>
       </c>
       <c r="AC24" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2857,22 +3268,25 @@
       <c r="AG24">
         <v>-1.3797287940979</v>
       </c>
-      <c r="AH24" t="s">
-        <v>134</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300959</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>6.34</v>
@@ -2890,7 +3304,7 @@
         <v>59475.46</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -2932,10 +3346,25 @@
         <v>0.67</v>
       </c>
       <c r="X25" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y25">
+        <v>11</v>
+      </c>
+      <c r="Z25">
+        <v>84.45</v>
+      </c>
+      <c r="AA25">
+        <v>8.050000000000001</v>
       </c>
       <c r="AC25" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2943,22 +3372,25 @@
       <c r="AG25">
         <v>2.952862977981567</v>
       </c>
-      <c r="AH25" t="s">
-        <v>134</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300969</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-4.83</v>
@@ -2976,7 +3408,7 @@
         <v>21493.41</v>
       </c>
       <c r="J26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -3018,10 +3450,25 @@
         <v>0.21</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y26">
+        <v>4.87</v>
+      </c>
+      <c r="Z26">
+        <v>122.98</v>
+      </c>
+      <c r="AA26">
+        <v>9.039999999999999</v>
       </c>
       <c r="AC26" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3029,22 +3476,25 @@
       <c r="AG26">
         <v>4.506665706634521</v>
       </c>
-      <c r="AH26" t="s">
-        <v>134</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301008</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-7.63</v>
@@ -3062,7 +3512,7 @@
         <v>25578.84</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3104,10 +3554,25 @@
         <v>-0.08</v>
       </c>
       <c r="X27" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y27">
+        <v>12.79</v>
+      </c>
+      <c r="Z27">
+        <v>49.79</v>
+      </c>
+      <c r="AA27">
+        <v>22.82</v>
       </c>
       <c r="AC27" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3115,22 +3580,25 @@
       <c r="AG27">
         <v>-1.552714586257935</v>
       </c>
-      <c r="AH27" t="s">
-        <v>134</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301012</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>0.18</v>
@@ -3148,7 +3616,7 @@
         <v>17227.89</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3190,10 +3658,25 @@
         <v>-0.18</v>
       </c>
       <c r="X28" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y28">
+        <v>-4.89</v>
+      </c>
+      <c r="Z28">
+        <v>26.2</v>
+      </c>
+      <c r="AA28">
+        <v>-3.57</v>
       </c>
       <c r="AC28" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3201,22 +3684,25 @@
       <c r="AG28">
         <v>1.914549112319946</v>
       </c>
-      <c r="AH28" t="s">
-        <v>134</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301013</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-6.98</v>
@@ -3234,7 +3720,7 @@
         <v>96296.74000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3276,10 +3762,25 @@
         <v>-1.38</v>
       </c>
       <c r="X29" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y29">
+        <v>14.62</v>
+      </c>
+      <c r="Z29">
+        <v>31.2</v>
+      </c>
+      <c r="AA29">
+        <v>14.75</v>
       </c>
       <c r="AC29" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3287,22 +3788,25 @@
       <c r="AG29">
         <v>-1.434410333633423</v>
       </c>
-      <c r="AH29" t="s">
-        <v>134</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301150</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>6.83</v>
@@ -3320,7 +3824,7 @@
         <v>42006.52</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K30">
         <v>14</v>
@@ -3362,10 +3866,25 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="X30" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="Y30">
+        <v>4.05</v>
+      </c>
+      <c r="Z30">
+        <v>45.38</v>
+      </c>
+      <c r="AA30">
+        <v>6.73</v>
       </c>
       <c r="AC30" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3373,22 +3892,25 @@
       <c r="AG30">
         <v>6.523412227630615</v>
       </c>
-      <c r="AH30" t="s">
-        <v>134</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301307</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-0.37</v>
@@ -3406,7 +3928,7 @@
         <v>21606.95</v>
       </c>
       <c r="J31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K31">
         <v>8</v>
@@ -3448,10 +3970,25 @@
         <v>-0.2</v>
       </c>
       <c r="X31" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y31">
+        <v>-0.1</v>
+      </c>
+      <c r="Z31">
+        <v>41.8</v>
+      </c>
+      <c r="AA31">
+        <v>2.33</v>
       </c>
       <c r="AC31" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3459,22 +3996,25 @@
       <c r="AG31">
         <v>5.138019561767578</v>
       </c>
-      <c r="AH31" t="s">
-        <v>134</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301308</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>10.69</v>
@@ -3492,7 +4032,7 @@
         <v>133453.25</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3534,10 +4074,25 @@
         <v>0.25</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y32">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="Z32">
+        <v>145.15</v>
+      </c>
+      <c r="AA32">
+        <v>15.03</v>
       </c>
       <c r="AC32" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3545,22 +4100,25 @@
       <c r="AG32">
         <v>-8.90980052947998</v>
       </c>
-      <c r="AH32" t="s">
-        <v>134</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301413</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-7.59</v>
@@ -3578,7 +4136,7 @@
         <v>41798.02</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33">
         <v>21</v>
@@ -3620,10 +4178,25 @@
         <v>-0.3</v>
       </c>
       <c r="X33" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y33">
+        <v>2.75</v>
+      </c>
+      <c r="Z33">
+        <v>180.32</v>
+      </c>
+      <c r="AA33">
+        <v>3.79</v>
       </c>
       <c r="AC33" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3631,22 +4204,25 @@
       <c r="AG33">
         <v>1.932369470596313</v>
       </c>
-      <c r="AH33" t="s">
-        <v>134</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301488</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-8.970000000000001</v>
@@ -3664,7 +4240,7 @@
         <v>55639.61</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K34">
         <v>18</v>
@@ -3706,10 +4282,25 @@
         <v>-1.47</v>
       </c>
       <c r="X34" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y34">
+        <v>0.12</v>
+      </c>
+      <c r="Z34">
+        <v>189.19</v>
+      </c>
+      <c r="AA34">
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AC34" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3717,22 +4308,25 @@
       <c r="AG34">
         <v>10.38313770294189</v>
       </c>
-      <c r="AH34" t="s">
-        <v>134</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301600</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-1.37</v>
@@ -3750,7 +4344,7 @@
         <v>15310.85</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3792,10 +4386,25 @@
         <v>-0.44</v>
       </c>
       <c r="X35" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y35">
+        <v>1.45</v>
+      </c>
+      <c r="Z35">
+        <v>147.97</v>
+      </c>
+      <c r="AA35">
+        <v>0.78</v>
       </c>
       <c r="AC35" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3803,22 +4412,25 @@
       <c r="AG35">
         <v>3.757240056991577</v>
       </c>
-      <c r="AH35" t="s">
-        <v>134</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688028</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-3.19</v>
@@ -3836,7 +4448,7 @@
         <v>17098.37</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K36">
         <v>10</v>
@@ -3878,10 +4490,25 @@
         <v>-0.01</v>
       </c>
       <c r="X36" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y36">
+        <v>13.19</v>
+      </c>
+      <c r="Z36">
+        <v>51.88</v>
+      </c>
+      <c r="AA36">
+        <v>12.59</v>
       </c>
       <c r="AC36" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3889,22 +4516,25 @@
       <c r="AG36">
         <v>6.920735359191895</v>
       </c>
-      <c r="AH36" t="s">
-        <v>134</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688041</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-1.26</v>
@@ -3922,7 +4552,7 @@
         <v>393274.83</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3964,10 +4594,25 @@
         <v>-0.03</v>
       </c>
       <c r="X37" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y37">
+        <v>10.7</v>
+      </c>
+      <c r="Z37">
+        <v>274.78</v>
+      </c>
+      <c r="AA37">
+        <v>14.14</v>
       </c>
       <c r="AC37" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3975,22 +4620,25 @@
       <c r="AG37">
         <v>20.74713325500488</v>
       </c>
-      <c r="AH37" t="s">
-        <v>134</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688135</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.13</v>
@@ -4008,7 +4656,7 @@
         <v>36746.37</v>
       </c>
       <c r="J38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K38">
         <v>14</v>
@@ -4050,10 +4698,25 @@
         <v>-0.41</v>
       </c>
       <c r="X38" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y38">
+        <v>5.46</v>
+      </c>
+      <c r="Z38">
+        <v>36.58</v>
+      </c>
+      <c r="AA38">
+        <v>4.37</v>
       </c>
       <c r="AC38" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4061,22 +4724,25 @@
       <c r="AG38">
         <v>1.308992981910706</v>
       </c>
-      <c r="AH38" t="s">
-        <v>134</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688141</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-0.04</v>
@@ -4094,7 +4760,7 @@
         <v>21388.18</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K39">
         <v>13</v>
@@ -4136,10 +4802,25 @@
         <v>0.01</v>
       </c>
       <c r="X39" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y39">
+        <v>1.39</v>
+      </c>
+      <c r="Z39">
+        <v>51.27</v>
+      </c>
+      <c r="AA39">
+        <v>-0.98</v>
       </c>
       <c r="AC39" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4147,22 +4828,25 @@
       <c r="AG39">
         <v>4.543680191040039</v>
       </c>
-      <c r="AH39" t="s">
-        <v>134</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688147</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.91</v>
@@ -4180,7 +4864,7 @@
         <v>24958.36</v>
       </c>
       <c r="J40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K40">
         <v>25</v>
@@ -4222,10 +4906,25 @@
         <v>-0.01</v>
       </c>
       <c r="X40" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y40">
+        <v>0.83</v>
+      </c>
+      <c r="Z40">
+        <v>48.59</v>
+      </c>
+      <c r="AA40">
+        <v>-0.59</v>
       </c>
       <c r="AC40" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4233,22 +4932,25 @@
       <c r="AG40">
         <v>5.671034336090088</v>
       </c>
-      <c r="AH40" t="s">
-        <v>134</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688167</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>1.29</v>
@@ -4266,7 +4968,7 @@
         <v>42138.62</v>
       </c>
       <c r="J41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41">
         <v>11</v>
@@ -4308,10 +5010,25 @@
         <v>0.08</v>
       </c>
       <c r="X41" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y41">
+        <v>-2.53</v>
+      </c>
+      <c r="Z41">
+        <v>181.99</v>
+      </c>
+      <c r="AA41">
+        <v>1.04</v>
       </c>
       <c r="AC41" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4319,22 +5036,25 @@
       <c r="AG41">
         <v>3.048098564147949</v>
       </c>
-      <c r="AH41" t="s">
-        <v>134</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688195</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.61</v>
@@ -4352,7 +5072,7 @@
         <v>59464.25</v>
       </c>
       <c r="J42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42">
         <v>25</v>
@@ -4394,10 +5114,25 @@
         <v>0.2</v>
       </c>
       <c r="X42" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y42">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Z42">
+        <v>143.78</v>
+      </c>
+      <c r="AA42">
+        <v>17.31</v>
       </c>
       <c r="AC42" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4405,22 +5140,25 @@
       <c r="AG42">
         <v>3.860388994216919</v>
       </c>
-      <c r="AH42" t="s">
-        <v>134</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688205</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>8.25</v>
@@ -4438,7 +5176,7 @@
         <v>113402.51</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4480,10 +5218,25 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y43">
+        <v>-3.9</v>
+      </c>
+      <c r="Z43">
+        <v>161.8</v>
+      </c>
+      <c r="AA43">
+        <v>6.45</v>
       </c>
       <c r="AC43" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4491,22 +5244,25 @@
       <c r="AG43">
         <v>1.713298559188843</v>
       </c>
-      <c r="AH43" t="s">
-        <v>134</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688228</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>9.16</v>
@@ -4524,7 +5280,7 @@
         <v>45283.79</v>
       </c>
       <c r="J44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -4566,10 +5322,25 @@
         <v>0.16</v>
       </c>
       <c r="X44" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y44">
+        <v>14.56</v>
+      </c>
+      <c r="Z44">
+        <v>217</v>
+      </c>
+      <c r="AA44">
+        <v>14.21</v>
       </c>
       <c r="AC44" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4577,22 +5348,25 @@
       <c r="AG44">
         <v>6.450266361236572</v>
       </c>
-      <c r="AH44" t="s">
-        <v>135</v>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688347</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.62</v>
@@ -4610,7 +5384,7 @@
         <v>54224.13</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4652,10 +5426,25 @@
         <v>0.04</v>
       </c>
       <c r="X45" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y45">
+        <v>2</v>
+      </c>
+      <c r="Z45">
+        <v>86.67</v>
+      </c>
+      <c r="AA45">
+        <v>4.42</v>
       </c>
       <c r="AC45" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4663,22 +5452,25 @@
       <c r="AG45">
         <v>1.337244153022766</v>
       </c>
-      <c r="AH45" t="s">
-        <v>134</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688411</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.7</v>
@@ -4696,7 +5488,7 @@
         <v>10368.57</v>
       </c>
       <c r="J46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K46">
         <v>14</v>
@@ -4738,10 +5530,25 @@
         <v>-0.24</v>
       </c>
       <c r="X46" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y46">
+        <v>7.65</v>
+      </c>
+      <c r="Z46">
+        <v>218.77</v>
+      </c>
+      <c r="AA46">
+        <v>9.390000000000001</v>
       </c>
       <c r="AC46" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4749,22 +5556,25 @@
       <c r="AG46">
         <v>7.026521682739258</v>
       </c>
-      <c r="AH46" t="s">
-        <v>134</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688502</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>4.99</v>
@@ -4782,7 +5592,7 @@
         <v>25593.39</v>
       </c>
       <c r="J47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4824,10 +5634,25 @@
         <v>0.32</v>
       </c>
       <c r="X47" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y47">
+        <v>-1.52</v>
+      </c>
+      <c r="Z47">
+        <v>456.6</v>
+      </c>
+      <c r="AA47">
+        <v>-1.76</v>
       </c>
       <c r="AC47" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4835,22 +5660,25 @@
       <c r="AG47">
         <v>3.708951473236084</v>
       </c>
-      <c r="AH47" t="s">
-        <v>134</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688593</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>2.81</v>
@@ -4868,7 +5696,7 @@
         <v>14254.28</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -4910,10 +5738,25 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y48">
+        <v>-8.85</v>
+      </c>
+      <c r="Z48">
+        <v>25.17</v>
+      </c>
+      <c r="AA48">
+        <v>-3.12</v>
       </c>
       <c r="AC48" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4921,22 +5764,25 @@
       <c r="AG48">
         <v>1.489667057991028</v>
       </c>
-      <c r="AH48" t="s">
-        <v>134</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688627</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>5.95</v>
@@ -4954,7 +5800,7 @@
         <v>27785.63</v>
       </c>
       <c r="J49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K49">
         <v>6</v>
@@ -4995,8 +5841,23 @@
       <c r="W49">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Y49">
+        <v>4.07</v>
+      </c>
+      <c r="Z49">
+        <v>157</v>
+      </c>
+      <c r="AA49">
+        <v>2.61</v>
+      </c>
       <c r="AC49" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5004,22 +5865,25 @@
       <c r="AG49">
         <v>3.722222566604614</v>
       </c>
-      <c r="AH49" t="s">
-        <v>134</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688629</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-1.6</v>
@@ -5037,7 +5901,7 @@
         <v>181621.06</v>
       </c>
       <c r="J50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50">
         <v>7</v>
@@ -5079,10 +5943,25 @@
         <v>-1.25</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y50">
+        <v>2.62</v>
+      </c>
+      <c r="Z50">
+        <v>111.11</v>
+      </c>
+      <c r="AA50">
+        <v>6.32</v>
       </c>
       <c r="AC50" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5090,22 +5969,25 @@
       <c r="AG50">
         <v>3.854945182800293</v>
       </c>
-      <c r="AH50" t="s">
-        <v>134</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688766</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>6.12</v>
@@ -5123,7 +6005,7 @@
         <v>60449.15</v>
       </c>
       <c r="J51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5165,10 +6047,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X51" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y51">
+        <v>3.06</v>
+      </c>
+      <c r="Z51">
+        <v>112.6</v>
+      </c>
+      <c r="AA51">
+        <v>3.71</v>
       </c>
       <c r="AC51" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5176,22 +6073,25 @@
       <c r="AG51">
         <v>3.118579387664795</v>
       </c>
-      <c r="AH51" t="s">
-        <v>134</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688981</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>0.04</v>
@@ -5209,7 +6109,7 @@
         <v>475015.22</v>
       </c>
       <c r="J52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K52">
         <v>7</v>
@@ -5250,8 +6150,23 @@
       <c r="W52">
         <v>-0.03</v>
       </c>
+      <c r="Y52">
+        <v>6.25</v>
+      </c>
+      <c r="Z52">
+        <v>129.83</v>
+      </c>
+      <c r="AA52">
+        <v>6.24</v>
+      </c>
       <c r="AC52" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5259,8 +6174,11 @@
       <c r="AG52">
         <v>-2.21467924118042</v>
       </c>
-      <c r="AH52" t="s">
-        <v>134</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
